--- a/Copy of 2021-05-05 List of issues R1.xlsx
+++ b/Copy of 2021-05-05 List of issues R1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\12957 - Blackstart - Desktop Studies\desktopstudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08662A16-644F-4AD1-9B9F-465EC4400001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796261B1-B61B-4E21-9A93-955867F17D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3000" windowWidth="23256" windowHeight="12576" xr2:uid="{2B60A837-EEB7-40A4-A8E9-8FD7BEE2FA05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B60A837-EEB7-40A4-A8E9-8FD7BEE2FA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
